--- a/pearson_tables/tp_netherlands_cumul-1-6.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6707904030202774</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6362488950146039</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6904168597993656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5973508867144915</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.718915432049594</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7232260297359224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6253350150136955</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6699407066732986</v>
+        <v>-0.676580331437285</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6508882349800834</v>
+        <v>0.7736733172507795</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7808806839581568</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7283069589042362</v>
+        <v>0.7252941169329628</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7664953450533928</v>
+        <v>-0.7826116191843241</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.637932690792357</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6720377556231254</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6126955229545428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6670751364980568</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5995122402056708</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4884711395173219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7735110180424224</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7773486577723252</v>
+        <v>-0.6280277759726285</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.720177281025247</v>
+        <v>0.6377326822774342</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7002602720531476</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7353183130235942</v>
+        <v>0.689399516064055</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7323044951510276</v>
+        <v>-0.6847479235958919</v>
       </c>
     </row>
   </sheetData>
